--- a/biology/Botanique/Pontederiaceae/Pontederiaceae.xlsx
+++ b/biology/Botanique/Pontederiaceae/Pontederiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Pontederiaceae (Pontédériacées) regroupe des plantes monocotylédones ; elle comprend une trentaine d'espèces réparties entre 5 et 9 genres.
 Ce sont des plantes herbacées, aquatiques, plus ou moins succulentes, flottantes ou fixées par des racines, des régions tempérées chaudes à tropicales.
 Dans cette famille, on peut citer la Jacinthe d'eau (genre Eichhornia), une espèce flottante très envahissante des cours d'eau tropicaux. Elle est, par ailleurs, en climat moins favorable, utilisée comme plante d'ornement dans les jardins aquatiques.
-La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] placent aujourd'hui cette famille dans l'ordre des Commelinales.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent aujourd'hui cette famille dans l'ordre des Commelinales.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du gente Pontederia nommé en hommage au botaniste italien Giulio Pontedera (1688–1757), qui fut professeur à l'université de Padou et directeur du jardin botanique de l'université (le plus ancien jardin botanique encore en état). Linné nomma le genre du nom de Pontedera bien que ce dernier rejeta sa classification des plantes basée sur les parties fertiles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du gente Pontederia nommé en hommage au botaniste italien Giulio Pontedera (1688–1757), qui fut professeur à l'université de Padou et directeur du jardin botanique de l'université (le plus ancien jardin botanique encore en état). Linné nomma le genre du nom de Pontedera bien que ce dernier rejeta sa classification des plantes basée sur les parties fertiles.
 </t>
         </is>
       </c>
@@ -545,16 +559,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 Eichhornia  Kunth (1843)
 Heteranthera  Ruiz &amp; Pav. (1794)
 Hydrothrix  Hook.f. (1887)
 Monochoria  C.Presl (1827)
 Pontederia  L. (1753)
 Scholleropsis  H.Perrier (1936)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) :
 Eichhornia
 Eurystemon
 Heteranthera
@@ -564,13 +580,13 @@
 Reussia
 Scholleropsis
 Zosterella
-Selon NCBI  (19 avr. 2010)[6] :
+Selon NCBI  (19 avr. 2010) :
 Eichhornia
 Heteranthera
 Hydrothrix
 Monochoria
 Pontederia
-Selon DELTA Angio           (19 avr. 2010)[7] :
+Selon DELTA Angio           (19 avr. 2010) :
 Eichhornia
 Eurystemon
 Heteranthera
@@ -580,7 +596,7 @@
 Reussia
 Scholleropsis
 Zosterella
-Selon ITIS      (20 avr. 2010)[8] :
+Selon ITIS      (20 avr. 2010) :
 Eichhornia  Kunth
 Eurystemon
 Heteranthera  Ruiz &amp; Pavón
@@ -616,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 genre Eichhornia  Kunth (1843)
 Eichhornia azurea  (Sw.) Kunth (1843)
 Eichhornia crassipes  (Mart.) Solms (1883)
@@ -660,7 +678,7 @@
 Pontederia triflora  (Seub.) G.Agostini, D.Velázquez &amp; J.Velásquez (1984)
 genre Scholleropsis  H.Perrier (1936)
 Scholleropsis lutea  H.Perrier (1936)
-Selon NCBI  (19 avr. 2010)[6] :
+Selon NCBI  (19 avr. 2010) :
 genre Eichhornia
 Eichhornia azurea
 Eichhornia crassipes
